--- a/biology/Microbiologie/Encephalitozoon_cuniculi/Encephalitozoon_cuniculi.xlsx
+++ b/biology/Microbiologie/Encephalitozoon_cuniculi/Encephalitozoon_cuniculi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Encephalitozoon cuniculi est une microsporidie parasite intracellulaire d’autres eucaryotes.
 </t>
@@ -511,7 +523,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Encephalitozoon cuniculi fut la 1re infection de mammifère observée chez le lapin en 1922.
 Il peut infecter les lapins, les souris et les rats de laboratoire. Le parasite provoque des granulomes cérébraux et cause des infections chroniques du lapin.
@@ -549,9 +563,11 @@
           <t>Le génome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le génome d'Encephalitozoon cuniculi a été entièrement séquencé[1]. Il est très compact avec 2,9 Mbases (l’un des génomes eucaryotes les plus petits connus à ce jour). Le génome comporte 2000 gènes organisés sur 11 chromosomes. Les gènes sont très proches les uns des autres. On constate très peu de séquences répétées et non codantes dans l’ADN (seulement 11 introns) et quelques séquences intergéniques flanquantes (donc pas d’ORF chevauchant) ce qui suggère qu'Encephalitozoon cuniculi pourrait coder l’information dont il a besoin de manière très efficace et ceci montre une parfaite adaptation au parasitisme. Les gènes impliqués dans le cycle de Krebs et la chaîne respiratoire sont manquants. Il y a peu de gènes impliqués dans la biosynthèse des acides aminés. Il existe plusieurs délétions dans les gènes codant les ARN ribosomiques.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le génome d'Encephalitozoon cuniculi a été entièrement séquencé. Il est très compact avec 2,9 Mbases (l’un des génomes eucaryotes les plus petits connus à ce jour). Le génome comporte 2000 gènes organisés sur 11 chromosomes. Les gènes sont très proches les uns des autres. On constate très peu de séquences répétées et non codantes dans l’ADN (seulement 11 introns) et quelques séquences intergéniques flanquantes (donc pas d’ORF chevauchant) ce qui suggère qu'Encephalitozoon cuniculi pourrait coder l’information dont il a besoin de manière très efficace et ceci montre une parfaite adaptation au parasitisme. Les gènes impliqués dans le cycle de Krebs et la chaîne respiratoire sont manquants. Il y a peu de gènes impliqués dans la biosynthèse des acides aminés. Il existe plusieurs délétions dans les gènes codant les ARN ribosomiques.
 </t>
         </is>
       </c>
